--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.557632398753894</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7142857142857143</v>
-      </c>
+        <v>0.551829268292683</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.988950276243094</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03401360544217687</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.551829268292683</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7131474103585657</v>
+        <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4939024390243902</v>
+        <v>0.4847560975609756</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07605034748797303</v>
+        <v>0.1113204120803839</v>
       </c>
       <c r="J2" t="n">
-        <v>1007.633811778238</v>
+        <v>1453.985492456916</v>
       </c>
       <c r="K2" t="n">
-        <v>1433015.367265397</v>
+        <v>2689084.545372764</v>
       </c>
       <c r="L2" t="n">
-        <v>1197.086198761558</v>
+        <v>1639.842841668909</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7296747601343359</v>
+        <v>0.4927288001564641</v>
       </c>
     </row>
   </sheetData>
